--- a/biology/Botanique/Medicago_falcata/Medicago_falcata.xlsx
+++ b/biology/Botanique/Medicago_falcata/Medicago_falcata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Medicago falcata, la luzerne sauvage ou luzerne en faucille, est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Eurasie.
 Ce sont des plantes herbacées vivaces à fleurs jaunes et à système racinaire pivotant.
@@ -514,9 +526,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>luzerne en faucille, luzerne en faux, luzerne faucille, luzerne jaune[2], luzerne sauvage[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>luzerne en faucille, luzerne en faux, luzerne faucille, luzerne jaune, luzerne sauvage.</t>
         </is>
       </c>
     </row>
@@ -546,26 +560,68 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Medicago aurantiaca Godr.[1]
-Medicago borealis Grossh.[1] [4]
-Medicago difalcata Sinskaya[4]
-Medicago falcata subsp. erecta Kotov[1]
-Medicago falcata (Prodán) O. Schwarz &amp; Klink.[4]
-Medicago falcata L.[4]
-Medicago glandulosa (Mert. &amp; W.D.J.Koch) Davidov[1]
-Medicago kotovii Wissjul.[1]
-Medicago procumbens Besser[1]
-Medicago quasifalcata Sinskaya[1] [4]
-Medicago romanica Prodan[1]
-Medicago romanica Prodán[4]
-Medicago sativa subsp. falcata (L.) Arcang. (préféré par GRIN)[4]
-Medicago sativa subsp. falcata (L.) Arcang.[5]
-Medicago sativa var. falcata (L.) Alef.[1]
-Medicago talcata L.[1]
-Medicago tenderiensis Opperman ex Klokov[4]
-Liste des variétés et sous-espèces
-Selon Tropicos                                           (26 septembre 2018)[6] (Attention liste brute contenant possiblement des synonymes) :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Medicago aurantiaca Godr.
+Medicago borealis Grossh. 
+Medicago difalcata Sinskaya
+Medicago falcata subsp. erecta Kotov
+Medicago falcata (Prodán) O. Schwarz &amp; Klink.
+Medicago falcata L.
+Medicago glandulosa (Mert. &amp; W.D.J.Koch) Davidov
+Medicago kotovii Wissjul.
+Medicago procumbens Besser
+Medicago quasifalcata Sinskaya 
+Medicago romanica Prodan
+Medicago romanica Prodán
+Medicago sativa subsp. falcata (L.) Arcang. (préféré par GRIN)
+Medicago sativa subsp. falcata (L.) Arcang.
+Medicago sativa var. falcata (L.) Alef.
+Medicago talcata L.
+Medicago tenderiensis Opperman ex Klokov
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Medicago_falcata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Medicago_falcata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés et sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Selon Tropicos                                           (26 septembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Medicago falcata subsp. erecta Kotov
 Medicago falcata subsp. falcata
